--- a/templates/FLC_CU.xlsx
+++ b/templates/FLC_CU.xlsx
@@ -8,33 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVM Gov\EVM-Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE22D63F-E35D-4D64-AED2-F3ABD130AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99E21F-4C7B-4D12-A144-A8F56E934BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BCA05A7-2C7C-41F2-B3DF-31BAD72F3277}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CU No.</t>
   </si>
@@ -48,10 +39,16 @@
     <t xml:space="preserve">CU Pink Paper Seal No. </t>
   </si>
   <si>
-    <t>Box No.</t>
-  </si>
-  <si>
     <t>FLC Status</t>
+  </si>
+  <si>
+    <t>CU Month &amp; Year of Manufacture</t>
+  </si>
+  <si>
+    <t>DMM Month &amp; Year of Manufacture</t>
+  </si>
+  <si>
+    <t>Box no.</t>
   </si>
 </sst>
 </file>
@@ -101,11 +98,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -167,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,7 +219,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -420,45 +420,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BC161C-4EC0-4D9E-A444-43D289112932}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="1" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>